--- a/resultado_final.xlsx
+++ b/resultado_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>controlador de carga mppt 40a 12/24v - e</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,41 +502,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>319</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>18.183,00</t>
-        </is>
+        <v>832.91</v>
+      </c>
+      <c r="G2" t="n">
+        <v>52473.33</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Pura Jfa 3000w 48/220v Ger Rack</t>
+          <t>controlador de carga solar mppt 40a 12/2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -545,41 +543,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>4930</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>9.860,00</t>
-        </is>
+        <v>945.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23647.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">INVERSOR OFF GRID SENOIDAL PURA JFA 3000W C/  GER RACK </t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>inversor senoidal epever ipower plus ip2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,41 +584,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>536.49</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.437,88</t>
-        </is>
+        <v>2699.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18899.37</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>controlador de carga epever mppt 40a - t</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -631,41 +625,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>453.5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.895,50</t>
-        </is>
+        <v>1096.41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17542.56</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>controlador de carga mppt 40a 12/24v - e</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -674,41 +666,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>308.63</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.938,08</t>
-        </is>
+        <v>881.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12346.74</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>controlador de carga epever pwm 45a 12/2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -717,41 +707,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>570.5700000000001</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.993,99</t>
-        </is>
+        <v>403.66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11706.14</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>controlador de carga mppt epever 30a 12/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -760,41 +748,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>655.3</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3.931,80</t>
-        </is>
+        <v>739.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11098.5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>controlador de carga mppt epever 30a 12/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -803,41 +789,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>527.9</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3.695,30</t>
-        </is>
+        <v>663.95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10623.2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>controlador de carga mppt 30a - triron32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -846,41 +830,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>622.9299999999999</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3.114,65</t>
-        </is>
+        <v>807.41</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9688.92</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>controlador de carga mppt 40a epver xtra 4415n 48v 24v 12v</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -889,41 +871,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>606.1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>3.030,50</t>
-        </is>
+        <v>1345</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8070</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>controlador de carga epever mppt 20a 12/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -932,41 +912,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>576.61</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.883,05</t>
-        </is>
+        <v>645.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7751.88</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim</t>
+          <t>controlador de carga mppt epever 30a 12/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -975,41 +953,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>308.63</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.777,67</t>
-        </is>
+        <v>642.98</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7715.76</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>GOENG ENERGIA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Sli</t>
+          <t>inversor solar epever híbrido-off upower</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1018,41 +994,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>681.27</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2.725,08</t>
-        </is>
+        <v>6878</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6878</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímet</t>
+          <t>inversor senoidal epever ipower plus ip3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1061,41 +1035,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>537.9299999999999</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2.689,65</t>
-        </is>
+        <v>3167.01</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6334.02</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>GOENG ENERGIA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>inversor solar epever híbrido-off upower</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1104,41 +1076,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>622.9400000000001</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2.491,76</t>
-        </is>
+        <v>6298</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6298</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>SOLARSELL COMERCIO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>inversor epever upower-hi up5000 - 80a m</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1147,41 +1117,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>606.11</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2.424,44</t>
-        </is>
+        <v>6223.14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6223.14</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>inversor senoidal epever ipower plus ip3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1190,41 +1158,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2.317,70</t>
-        </is>
+        <v>3068.01</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6136.02</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ls Distribuidora</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline</t>
+          <t>inversor senoidal epever ipower plus ip3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1233,41 +1199,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2.252,80</t>
-        </is>
+        <v>2969.99</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5939.98</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SOLARSELL COMERCIO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
+          <t>inversor epever 1500 onda senoidal pura</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1276,41 +1240,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>367.38</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2.204,28</t>
-        </is>
+        <v>1843.86</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5531.58</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FONTE LITE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Stor</t>
+          <t>controlador de carga epever mppt 40a - t</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1319,41 +1281,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>345.65</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2.073,90</t>
-        </is>
+        <v>1057.71</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5288.55</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>controlador de carga mppt 40a (triron 42</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1362,41 +1322,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>681.26</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2.043,78</t>
-        </is>
+        <v>1147.41</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4589.64</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Inversor 24v Para 110v Senoidal Pura 200</t>
+          <t>controlador de carga solar pwm 20a com usb</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1405,41 +1363,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>1932</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1.932,00</t>
-        </is>
+        <v>262</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4454</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 2000W</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>SOLAR PRADO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000w 12v 110v Pico 4000w</t>
+          <t>inversor de onda de sinal puro 3000w - (</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1451,36 +1407,36 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1921.78</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1.921,78</t>
-        </is>
+        <v>4353.65</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4353.65</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 2000W</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>309761</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ACHEI ENERGIA</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fonte Retificadora Jfa 24v/15a</t>
+          <t>controlador de carga mppt 30a - triron32</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1489,41 +1445,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>1899.9</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.899,90</t>
-        </is>
+        <v>849.91</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4249.55</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FONTE NOBREAK 24V/15A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>OMEGASOLARPP</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>controlador de carga solar mppt 40a epever xtra ds2 12v 24v cor branco 12 / 24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1535,38 +1489,36 @@
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>374.7</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1.873,50</t>
-        </is>
+        <v>844.55</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4222.75</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>controlador de carga epever mppt 20a 12/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1575,41 +1527,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>622.9299999999999</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1.868,79</t>
-        </is>
+        <v>598.39</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4188.73</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>OPUS SOLAR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Sto</t>
+          <t>inversor off grid 48v/220v 2000w ip2000-</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1618,41 +1568,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>576.61</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.729,83</t>
-        </is>
+        <v>3690</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3690</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 24v 220v Off-grid Sen</t>
+          <t>controlador de carga mppt epever 30a 12/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1661,41 +1609,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>1696.7</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1.696,70</t>
-        </is>
+        <v>702.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3510.25</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 2000W</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>controlador de carga mppt epever 30a 12/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1704,41 +1650,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>536.49</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1.609,47</t>
-        </is>
+        <v>665.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3325.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>controlador de carga mppt 40a (triron 42</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1747,41 +1691,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>400.24</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.600,96</t>
-        </is>
+        <v>1106.91</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3320.73</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>PIKADULA PARTS</t>
-        </is>
+      <c r="A32" t="n">
+        <v>32121</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>controlador de carga solar 40a display m</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1793,38 +1733,36 @@
         <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>527.99</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1.583,97</t>
-        </is>
+        <v>1098.94</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3296.82</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 50a Lite Slim Bivol</t>
+          <t>controlador de carga epever mppt 40a 12/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1833,41 +1771,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>301.71</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1.508,55</t>
-        </is>
+        <v>813.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3253.56</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FONTE LITE 50A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SEG ONLINE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>inversor senoidal ip 1000w epever 12v 11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1876,41 +1812,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>484.87</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1.454,61</t>
-        </is>
+        <v>1562</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3124</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>INVERSOR 1000W 12V SENOIDAL PURA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>controlador de carga epever pwm 30a 12/2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1919,41 +1853,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F35" t="n">
-        <v>715.34</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.430,68</t>
-        </is>
+        <v>234.09</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3043.17</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>controlador de carga epever pwm 20a</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1962,41 +1894,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>715.33</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1.430,66</t>
-        </is>
+        <v>271.91</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2991.01</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>controlador de carga mppt 40a 12/24/36/4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2005,41 +1935,39 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1.293,60</t>
-        </is>
+        <v>1492.73</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2985.46</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>OMEGASOLARPP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>controlador de carga solar 40a mppt  epe</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2051,38 +1979,36 @@
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>422.39</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1.267,17</t>
-        </is>
+        <v>919.99</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2759.97</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>controlador de carga epever pwm 60a 12/2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2091,41 +2017,39 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>417.28</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1.251,84</t>
-        </is>
+        <v>686.71</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2746.84</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>controlador de carga epever mppt 40a 12/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2134,41 +2058,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>622.9400000000001</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1.245,88</t>
-        </is>
+        <v>881.99</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2645.97</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>controlador carga pwm 10a 12/24v epever</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2177,41 +2099,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F41" t="n">
-        <v>308.63</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1.234,52</t>
-        </is>
+        <v>125.91</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2644.11</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 150a Jfa Carregador Sli</t>
+          <t>controlador de carga epever vs4524au pwm 45a 12/24v</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2220,41 +2140,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>598.59</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>1.197,18</t>
-        </is>
+        <v>389.9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2339.4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>FONTE 150A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>inversor senoidal epever ipower plus ip1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2263,41 +2181,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>587.6</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>1.175,20</t>
-        </is>
+        <v>2249.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2249.9</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
+          <t>inversor senoidal epever ipower plus ip1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2306,41 +2222,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>357.67</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>1.073,01</t>
-        </is>
+        <v>2199.99</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2199.99</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>inversor senoidal epever ipower plus ip1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2349,41 +2263,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>527.98</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1.055,96</t>
-        </is>
+        <v>2199.9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2199.9</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>controlador de carga mppt 20a - triron22</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2392,41 +2304,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>907,80</t>
-        </is>
+        <v>726.66</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2179.98</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
+          <t>inversor senoidal 1500w 12/220v ipower p</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2435,41 +2345,39 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>453.51</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>907,02</t>
-        </is>
+        <v>2133.02</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2133.02</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RADICALSOM 2</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 200a Sci Or</t>
+          <t>controlador de carga epever pwm 45a</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2478,41 +2386,39 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>871.25</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>871,25</t>
-        </is>
+        <v>424.91</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2124.55</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ls Distribuidora</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200</t>
+          <t>controlador de carga mppt epever 30a 12/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2521,41 +2427,39 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>67</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>871,00</t>
-        </is>
+        <v>698.9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2096.7</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Storm Slim</t>
+          <t>controlador de carga pwm 30a 12/24v epev</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2564,41 +2468,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
-        <v>422.39</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>844,78</t>
-        </is>
+        <v>229.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2069.1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>controlador de carga epever mppt 40a 12/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2610,38 +2512,36 @@
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>422.39</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>844,78</t>
-        </is>
+        <v>930.99</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1861.98</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>controlador de carga pwm 20a 12/24v epev</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2650,41 +2550,39 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>422.38</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>844,76</t>
-        </is>
+        <v>154.9</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1858.8</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>OMEGASOLARPP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>controlador de carga solar 40a mppt  epe</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2696,38 +2594,36 @@
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>418.95</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>837,90</t>
-        </is>
+        <v>899</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1798</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SOLAR PRADO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>inversor senoidal epever ip350 - 350w 12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2736,41 +2632,39 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>798,40</t>
-        </is>
+        <v>897.52</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1795.04</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>controlador de carga epever pwm 20a</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2779,41 +2673,39 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>789,00</t>
-        </is>
+        <v>254.91</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1784.37</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>display remoto para controlador de carga</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2822,41 +2714,39 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
-        <v>374.7</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>749,40</t>
-        </is>
+        <v>217.94</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1743.52</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Slim Bivolt Sis</t>
+          <t>controlador de carga epever mppt 40a 12/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2868,38 +2758,36 @@
         <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>374.69</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>749,38</t>
-        </is>
+        <v>832.99</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1665.98</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>OMEGASOLARPP</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 20</t>
+          <t>controlador de carga solar 40a mppt  epe</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2908,41 +2796,39 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>742.42</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>742,42</t>
-        </is>
+        <v>819.1799999999999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1638.36</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>OMEGASOLARPP</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>controlador de carga solar 40a mppt  epe</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2951,41 +2837,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>715.33</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>715,33</t>
-        </is>
+        <v>799.2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1598.4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
+      <c r="A60" t="n">
+        <v>18262</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>medidor remoto mt50</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2994,41 +2876,39 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>694,80</t>
-        </is>
+        <v>227.99</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1595.93</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SEG ONLINE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>inversor senoidal epever 1000w - np1000-</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3040,38 +2920,36 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>681.27</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>681,27</t>
-        </is>
+        <v>1587.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1587.5</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>PANDA ENERGIA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>controlador de carga epever mppt 30a - x</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3080,41 +2958,39 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>681.27</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>681,27</t>
-        </is>
+        <v>769.8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1539.6</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>SEG ONLINE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Re</t>
+          <t>inversor senoidal epever 1000w - np1000-</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3126,38 +3002,36 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>681.26</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>681,26</t>
-        </is>
+        <v>1508.13</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1508.13</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>controlador de carga pwm 10a 12/24v epev</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3166,41 +3040,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>340.63</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>681,26</t>
-        </is>
+        <v>209.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1469.3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>display remoto para controlador de carga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3209,41 +3081,39 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>622.9299999999999</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>622,93</t>
-        </is>
+        <v>207.69</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1453.83</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>GOENG ENERGIA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>controlador de carga epever mppt 40a - x</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3252,41 +3122,39 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>308.63</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>617,26</t>
-        </is>
+        <v>1450</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1450</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
+          <t>controlador de carga pwm 10a 12/24v epev</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3295,41 +3163,37 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>598.59</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>598,59</t>
-        </is>
+        <v>201.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1410.5</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FONTE 150A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
+      <c r="A68" t="n">
+        <v>32121</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+          <t>kit controlador solar mppt epever 40a +</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3341,38 +3205,36 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>587.59</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>587,59</t>
-        </is>
+        <v>1349.94</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1349.94</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>controlador de carga epever pwm 10a - ls</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3381,41 +3243,39 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>587.59</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>587,59</t>
-        </is>
+        <v>145.26</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1307.34</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Biv</t>
+          <t>controlador de carga epever pwm 30a 12/2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3424,41 +3284,39 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>587.59</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>587,59</t>
-        </is>
+        <v>322.91</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1291.64</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>controlador de carga solar pwm 20a com usb</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3467,41 +3325,39 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>570.5700000000001</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>570,57</t>
-        </is>
+        <v>254.14</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1270.7</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carreg</t>
+          <t>controlador de carga epever pwm 10a - ls</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3510,41 +3366,39 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
-        <v>570.5599999999999</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>570,56</t>
-        </is>
+        <v>141.84</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1134.72</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>controlador de carga pwm 60a 12/24v epev</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3553,41 +3407,37 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>536.5</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>536,50</t>
-        </is>
+        <v>559.99</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1119.98</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
+      <c r="A74" t="n">
+        <v>32121</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>controlador de carga solar 40a mppt epev</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3599,38 +3449,34 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>536.5</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>536,50</t>
-        </is>
+        <v>1049.94</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1049.94</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
+      <c r="A75" t="n">
+        <v>32121</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>controlador de carga solar 40a display m</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3642,38 +3488,34 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>536.49</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>536,49</t>
-        </is>
+        <v>1043.99</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1043.99</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
+      <c r="A76" t="n">
+        <v>5317</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Biv</t>
+          <t>controlador mppt 40a epever tracer triron xtra 4210an 12/24</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3685,38 +3527,34 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>484.88</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>484,88</t>
-        </is>
+        <v>997</v>
+      </c>
+      <c r="G76" t="n">
+        <v>997</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>PIKADULA PARTS</t>
-        </is>
+      <c r="A77" t="n">
+        <v>19451</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>controlador mppt 40a epever tracer triron xtra 4210an 12/24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3728,38 +3566,36 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>484.88</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>484,88</t>
-        </is>
+        <v>994.7</v>
+      </c>
+      <c r="G77" t="n">
+        <v>994.7</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BOM SOL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
+          <t>controlador mppt 40a epever tracer triron xtra 4210an 12/24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3771,38 +3607,36 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>484.87</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>484,87</t>
-        </is>
+        <v>989.47</v>
+      </c>
+      <c r="G78" t="n">
+        <v>989.47</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>OMEGASOLARPP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Qdcc Pdu - Quadro De Distribuição Jfa</t>
+          <t>controlador de carga solar mppt 40a epever xtra ds2 12v 24v cor branco 12 / 24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3814,38 +3648,36 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>482</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>482,00</t>
-        </is>
+        <v>929.99</v>
+      </c>
+      <c r="G79" t="n">
+        <v>929.99</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>PDU / QDCC - QUADRO DE DISTRIBUIÇÃO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Storm Slim</t>
+          <t>controlador de carga epever vs4524au pwm 45a 12/24v</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3854,41 +3686,39 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>456.44</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>456,44</t>
-        </is>
+        <v>449.99</v>
+      </c>
+      <c r="G80" t="n">
+        <v>899.98</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SOLAR PRADO</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Ca</t>
+          <t>inversor senoidal epever ip350 - 350w 12</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3900,38 +3730,34 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>442.83</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>442,83</t>
-        </is>
+        <v>866.9299999999999</v>
+      </c>
+      <c r="G81" t="n">
+        <v>866.9299999999999</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>DIGITALSHOP SC</t>
-        </is>
+      <c r="A82" t="n">
+        <v>32121</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>controlador de carga solar 30a display m</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3943,38 +3769,34 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>442.82</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>442,82</t>
-        </is>
+        <v>854.9400000000001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>854.9400000000001</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
+      <c r="A83" t="n">
+        <v>32121</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Storm 70a Bivolt - </t>
+          <t>controlador de carga solar 30a display m</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3986,38 +3808,36 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>442.82</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>442,82</t>
-        </is>
+        <v>849.9400000000001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>849.9400000000001</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SOLAR PRADO</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>controlador de carga mppt 20a (triron221</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4029,38 +3849,34 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>422.39</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>422,39</t>
-        </is>
+        <v>819.6799999999999</v>
+      </c>
+      <c r="G84" t="n">
+        <v>819.6799999999999</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
+      <c r="A85" t="n">
+        <v>32945</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>controlador de carga mppt 30a 12/24v -</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4072,38 +3888,36 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>422.38</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>422,38</t>
-        </is>
+        <v>800.1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>800.1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>controlador de carga epever pwm 20a - ls</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4112,41 +3926,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>417.27</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>417,27</t>
-        </is>
+        <v>195.41</v>
+      </c>
+      <c r="G86" t="n">
+        <v>781.64</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ls Distribuidora</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Storm</t>
+          <t>display remoto para controlador de carga</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4155,41 +3967,39 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>401.22</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>401,22</t>
-        </is>
+        <v>256.4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>769.2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Ca</t>
+          <t>controlador de carga epever pwm 10a - ls</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4198,41 +4008,39 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>400.25</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>400,25</t>
-        </is>
+        <v>152.91</v>
+      </c>
+      <c r="G88" t="n">
+        <v>764.55</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Storm 60a Bivolt - </t>
+          <t>controlador de carga mppt epever 30a 12/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4244,38 +4052,36 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>400.24</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>400,24</t>
-        </is>
+        <v>736.99</v>
+      </c>
+      <c r="G89" t="n">
+        <v>736.99</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>PANDA ENERGIA</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>controlador solar epever vs3024au 30a</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4284,41 +4090,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>384,30</t>
-        </is>
+        <v>309.43</v>
+      </c>
+      <c r="G90" t="n">
+        <v>618.86</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Jfa 90a Para Caixa Som</t>
+          <t>controlador de carga epever mppt 20a 12/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4330,38 +4134,34 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>376.2</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>376,20</t>
-        </is>
+        <v>611.99</v>
+      </c>
+      <c r="G91" t="n">
+        <v>611.99</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
+      <c r="A92" t="n">
+        <v>1444</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>módulo comunicação epever wifi 2.4g rj45</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4370,41 +4170,39 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>374.7</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>374,70</t>
-        </is>
+        <v>299</v>
+      </c>
+      <c r="G92" t="n">
+        <v>598</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria J</t>
+          <t>controlador de carga mppt 20a 12/24v - e</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4416,38 +4214,36 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>374.69</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>374,69</t>
-        </is>
+        <v>594.7</v>
+      </c>
+      <c r="G93" t="n">
+        <v>594.7</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>controlador carga pwm 10a 12/24v epever</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4456,41 +4252,39 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>374.69</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>374,69</t>
-        </is>
+        <v>132.9</v>
+      </c>
+      <c r="G94" t="n">
+        <v>531.6</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Lite Bivolt Sci</t>
+          <t>medidor remoto epever mt75 para controla</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4499,41 +4293,39 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>345.65</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>345,65</t>
-        </is>
+        <v>263.41</v>
+      </c>
+      <c r="G95" t="n">
+        <v>526.8200000000001</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FONTE LITE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>SEG ONLINE</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
+          <t>controlador de carga 20a 12/24v - epever</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4542,41 +4334,37 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>345.65</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>345,65</t>
-        </is>
+        <v>219.1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>438.2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FONTE LITE 70A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
+      <c r="A97" t="n">
+        <v>526356</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa St</t>
+          <t>controlador de carga mppt 30a xtra 3210</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4588,38 +4376,36 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>340.63</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>340,63</t>
-        </is>
+        <v>399</v>
+      </c>
+      <c r="G97" t="n">
+        <v>399</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>controlador de carga epever pwm 30a</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4631,38 +4417,36 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>340.63</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>340,63</t>
-        </is>
+        <v>337.25</v>
+      </c>
+      <c r="G98" t="n">
+        <v>337.25</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>controlador carga pwm 30a 12/24v epever</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4674,38 +4458,36 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>330.17</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>330,17</t>
-        </is>
+        <v>319.9</v>
+      </c>
+      <c r="G99" t="n">
+        <v>319.9</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>cabo para comunicação de controlador de</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4714,41 +4496,39 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>330.17</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>330,17</t>
-        </is>
+        <v>38.95</v>
+      </c>
+      <c r="G100" t="n">
+        <v>311.6</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>controlador de carga pwm 20a 12/24v epev</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4757,41 +4537,39 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>330.17</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>330,17</t>
-        </is>
+        <v>152.91</v>
+      </c>
+      <c r="G101" t="n">
+        <v>305.82</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>medidor remoto epever mt75 para controla</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4803,38 +4581,34 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>309.7</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>309,70</t>
-        </is>
+        <v>294.4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>294.4</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>WE MARKET</t>
-        </is>
+      <c r="A103" t="n">
+        <v>64408</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 12</t>
+          <t>adaptador wi-fi epever para inversor e c</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4843,41 +4617,39 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>58.16</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>290,80</t>
-        </is>
+        <v>289</v>
+      </c>
+      <c r="G103" t="n">
+        <v>289</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>TRX SOLAR</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>sensor de temperatura solar - controlado</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4886,41 +4658,39 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>274,50</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="G104" t="n">
+        <v>270</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
+          <t>controlador de carga epever pwm 10a</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4932,38 +4702,36 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>264</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>264,00</t>
-        </is>
+        <v>256.41</v>
+      </c>
+      <c r="G105" t="n">
+        <v>256.41</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>AMPLIFICADOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>controlador de carga epever pwm 10a</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4972,41 +4740,39 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>52.01</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>260,05</t>
-        </is>
+        <v>254.91</v>
+      </c>
+      <c r="G106" t="n">
+        <v>254.91</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
+          <t>PANDA ENERGIA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd R</t>
+          <t>controlador solar 30a 12/24v ls3024eu ep</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5015,41 +4781,39 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>37</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>222,00</t>
-        </is>
+        <v>235</v>
+      </c>
+      <c r="G107" t="n">
+        <v>235</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TRX SOLAR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>display remoto - mt50</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5058,41 +4822,39 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>34.32</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>205,92</t>
-        </is>
+        <v>230</v>
+      </c>
+      <c r="G108" t="n">
+        <v>230</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenci</t>
+          <t>display remoto para controlador de carga</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5101,41 +4863,39 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>197,60</t>
-        </is>
+        <v>229.41</v>
+      </c>
+      <c r="G109" t="n">
+        <v>229.41</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>VOLTIMETRO SEQUENCIADOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GRUPO AUDIOVOX</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>controlador de carga pwm 10a 12/24v epev</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5144,41 +4904,39 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>98.42</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>196,84</t>
-        </is>
+        <v>196.9</v>
+      </c>
+      <c r="G110" t="n">
+        <v>196.9</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>controlador de carga epever pwm 20a - ls</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5187,41 +4945,39 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>189,30</t>
-        </is>
+        <v>186.91</v>
+      </c>
+      <c r="G111" t="n">
+        <v>186.91</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Equalizador E Balanceador De Baterias So</t>
+          <t>sensor de temperatura</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5230,41 +4986,39 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>184</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>184,00</t>
-        </is>
+        <v>36.29</v>
+      </c>
+      <c r="G112" t="n">
+        <v>181.45</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>EQUALIZADOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
+          <t>controlador de carga pwm 20a 12/24v epev</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5273,41 +5027,39 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>89</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>178,00</t>
-        </is>
+        <v>151.21</v>
+      </c>
+      <c r="G113" t="n">
+        <v>151.21</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa 1200mtr Wr P/ 99% Dos Aparelhos</t>
+          <t>controlador carga pwm 10a 12/24v epever</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5316,41 +5068,39 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>89</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>178,00</t>
-        </is>
+        <v>121.71</v>
+      </c>
+      <c r="G114" t="n">
+        <v>121.71</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa</t>
+          <t>cabo para comunicação de controlador de</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>EPEVER</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5359,1863 +5109,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>176,70</t>
-        </is>
+        <v>36.29</v>
+      </c>
+      <c r="G115" t="n">
+        <v>72.58</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>FILTRO ANTI-RUIDO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Filtro Eliminador De Ruído Rca Blindagem</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>3</v>
-      </c>
-      <c r="F116" t="n">
-        <v>57.76</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>173,28</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>FILTRO ANTI-RUIDO</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Ls Distribuidora</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>85</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>170,00</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>3</v>
-      </c>
-      <c r="F118" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>164,70</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>CONTROLE K600</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Jfa K120</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>3</v>
-      </c>
-      <c r="F119" t="n">
-        <v>52.01</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>156,03</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>527740</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 1200 M + Central E Cordão Cor Azul</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>51.14</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>153,42</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>47110</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>74</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>148,00</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>FILTRO ANTI-RUIDO</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>BASSAN PARTS</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>136,80</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>119,70</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>CONVERSOR</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>487758</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Kit 04 Bobinas Falantes Ultravox 550 (ka</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>119</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>119,00</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>BRO E-COMMERCE</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Distancia Jfa Red Line Pioneer </t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>117.52</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>117,52</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>57.87</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>115,74</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>13496</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>108.72</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>108,72</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnétic</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>53.89</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>107,78</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>FILTRO ANTI-RUIDO</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 Comple</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>104,22</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>CONTROLE K600</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>90,78</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd R</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>44</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>88,00</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>CONVERSOR</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Ls Distribuidora</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>85</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>85,00</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>84,90</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Aqua 1200me</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>84,90</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>LIKE PARTS</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Para Rádio </t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>79.58</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>79,58</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>VETA ACESSÓRIOS</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Redline 120</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>1</v>
-      </c>
-      <c r="F136" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>78,90</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>78,90</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>VETA ACESSÓRIOS</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" t="n">
-        <v>75</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>75,00</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>47110</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>74</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>74,00</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>FILTRO ANTI-RUIDO</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>TOPSHITECH</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distânci</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>71.09</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>71,09</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>68,90</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>BANDA SOM</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>65.31999999999999</v>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>65,32</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>61,90</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>TOTAL SOUND</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Verme</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>61.62</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>61,62</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>56.31</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>56,31</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>ELETRONICA TWO</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Controle Jfa 1200 Longa Distancia Univer</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>55.07</v>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>55,07</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>54,90</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>CONTROLE K600</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>TOPSHITECH</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>54.75</v>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>54,75</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Controle Universal Longa Distância Jfa K</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>53,90</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filtro Anti Ruido Jfa Rca Com Blindagem </t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>52.71</v>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>52,71</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>FILTRO ANTI-RUIDO</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K600 Preto </t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>49,90</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>CONTROLE K600</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>PEDROSO BIBI</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Voltimetro Digiltal Jfa V12 Slim Saída R</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>48.94</v>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>48,94</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>VOLTIMETRO SEQUENCIADOR</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>44</v>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>44,00</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>CONVERSOR</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>1</v>
-      </c>
-      <c r="F154" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>39,90</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>CONVERSOR</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>TELSOM SP</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Conversor De Fio Rca Remoto Slim Jfa 12v</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>1</v>
-      </c>
-      <c r="F155" t="n">
-        <v>38.43</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>38,43</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>CONVERSOR</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Lit</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>453.51</v>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2.267,55</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>FONTE LITE 120A</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SUPERTRIO SOM</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>442.82</v>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>442,82</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Voltímetro Sequenciador Automotivo Digit</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>440,30</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
